--- a/note_ver2.xlsx
+++ b/note_ver2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\일지\eomjunseung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC201C-7928-45E4-A270-5B435C0B0B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA105A6-1138-456C-8C11-F4C52C911C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4227BECD-7828-4020-BBC8-8A4AE239D286}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4227BECD-7828-4020-BBC8-8A4AE239D286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>ncs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>CNS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컴일01(~20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">문제해결~60(5)/수리(8) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">문제해결~55(5)/수리(20) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,23 +123,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">문제해결~65(5) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNS 完</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴일06~07(~10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백준 그래프 2개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새금중합/ 급하게 ncs 준비/ 시사상식 완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문제해결~66(10)/수리(8) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제해결~70(5) / 수리(다수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴일02~07(~10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디(10~12)발치(14~18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디문풀(30)으로 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디문풀 복습 및 돈계산 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새금중필기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새금중필기(삽질-모듈X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pm 1개/ 16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 문항 3개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 교재 (1회차 0-40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디(10~12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(21~02) 면접 준비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구공학3/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구공학1/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구공학2/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카카오문항 레이스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 5 문해 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG 코테 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,22 +588,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DB1657-132C-4957-BD4E-431B89EE3CA7}">
   <dimension ref="B4:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="58.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" customWidth="1"/>
+    <col min="6" max="6" width="30.69921875" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" customWidth="1"/>
+    <col min="8" max="8" width="58.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -549,7 +617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>44462</v>
       </c>
@@ -569,18 +637,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>44463</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -589,171 +657,264 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>44464</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>44465</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>44466</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>44467</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>44468</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>44469</v>
       </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>44470</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>44471</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>44472</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>44473</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>44474</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>44475</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>44476</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>44477</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>44478</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>44479</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>44480</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>44481</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>44482</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>44483</v>
       </c>

--- a/note_ver2.xlsx
+++ b/note_ver2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\Desktop\일지\eomjunseung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA105A6-1138-456C-8C11-F4C52C911C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0864358-6547-4A45-ADC0-D4F6CF50096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4227BECD-7828-4020-BBC8-8A4AE239D286}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>ncs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,26 @@
   </si>
   <si>
     <t xml:space="preserve">LG 코테 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닥치는 대로 풀기..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS 정처기 1 부분/스터디문풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 문항 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스터디 문항 1 개 SET!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리 5 문해 5/스터디 10개 문항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +609,7 @@
   <dimension ref="B4:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -890,7 +910,7 @@
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
@@ -900,6 +920,12 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" t="s">
         <v>38</v>
       </c>
@@ -908,10 +934,25 @@
       <c r="B24" s="1">
         <v>44481</v>
       </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>44482</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
